--- a/6/1/1/3/3/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/3/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3885,19 +3885,19 @@
         <v>2212</v>
       </c>
       <c r="M59">
-        <v>6532</v>
+        <v>7259</v>
       </c>
       <c r="N59">
-        <v>13809</v>
+        <v>13745</v>
       </c>
       <c r="O59">
-        <v>19145</v>
+        <v>18578</v>
       </c>
       <c r="P59">
-        <v>7707</v>
+        <v>7805</v>
       </c>
       <c r="Q59">
-        <v>8819</v>
+        <v>8624</v>
       </c>
       <c r="R59">
         <v>15955</v>

--- a/6/1/1/3/3/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/3/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3885,19 +3885,19 @@
         <v>2212</v>
       </c>
       <c r="M59">
-        <v>7259</v>
+        <v>7393</v>
       </c>
       <c r="N59">
-        <v>13745</v>
+        <v>14654</v>
       </c>
       <c r="O59">
-        <v>18578</v>
+        <v>17854</v>
       </c>
       <c r="P59">
-        <v>7805</v>
+        <v>7601</v>
       </c>
       <c r="Q59">
-        <v>8624</v>
+        <v>8509</v>
       </c>
       <c r="R59">
         <v>15955</v>

--- a/6/1/1/3/3/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/3/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Serie</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3888,19 +3891,75 @@
         <v>7393</v>
       </c>
       <c r="N59">
-        <v>14654</v>
+        <v>15281</v>
       </c>
       <c r="O59">
-        <v>17854</v>
+        <v>17648</v>
       </c>
       <c r="P59">
-        <v>7601</v>
+        <v>7295</v>
       </c>
       <c r="Q59">
-        <v>8509</v>
+        <v>8394</v>
       </c>
       <c r="R59">
         <v>15955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>-20375</v>
+      </c>
+      <c r="C60">
+        <v>-13892</v>
+      </c>
+      <c r="D60">
+        <v>17783</v>
+      </c>
+      <c r="E60">
+        <v>31675</v>
+      </c>
+      <c r="F60">
+        <v>-6483</v>
+      </c>
+      <c r="G60">
+        <v>4846</v>
+      </c>
+      <c r="H60">
+        <v>11329</v>
+      </c>
+      <c r="I60">
+        <v>65634</v>
+      </c>
+      <c r="J60">
+        <v>49459</v>
+      </c>
+      <c r="K60">
+        <v>343</v>
+      </c>
+      <c r="L60">
+        <v>2388</v>
+      </c>
+      <c r="M60">
+        <v>6355</v>
+      </c>
+      <c r="N60">
+        <v>9356</v>
+      </c>
+      <c r="O60">
+        <v>15008</v>
+      </c>
+      <c r="P60">
+        <v>8072</v>
+      </c>
+      <c r="Q60">
+        <v>7936</v>
+      </c>
+      <c r="R60">
+        <v>16175</v>
       </c>
     </row>
   </sheetData>
